--- a/data/genus_info_75point1.xlsx
+++ b/data/genus_info_75point1.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,16 +407,6 @@
           <t>n_Genomes_downloaded</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>n_Genomes_Sylph95</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>n_Samples_Sylph95</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,12 +457,6 @@
       <c r="L2">
         <v>4</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,12 +507,6 @@
       <c r="L3">
         <v>9</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -579,12 +557,6 @@
       <c r="L4">
         <v>11275</v>
       </c>
-      <c r="M4">
-        <v>23</v>
-      </c>
-      <c r="N4">
-        <v>51</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -635,12 +607,6 @@
       <c r="L5">
         <v>76</v>
       </c>
-      <c r="M5">
-        <v>24</v>
-      </c>
-      <c r="N5">
-        <v>54</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -691,12 +657,6 @@
       <c r="L6">
         <v>8</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -747,12 +707,6 @@
       <c r="L7">
         <v>9</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -803,12 +757,6 @@
       <c r="L8">
         <v>13</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -859,12 +807,6 @@
       <c r="L9">
         <v>9</v>
       </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>8</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -915,12 +857,6 @@
       <c r="L10">
         <v>17</v>
       </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -971,12 +907,6 @@
       <c r="L11">
         <v>8</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1027,12 +957,6 @@
       <c r="L12">
         <v>3</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1083,12 +1007,6 @@
       <c r="L13">
         <v>343</v>
       </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>7</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1139,12 +1057,6 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1195,12 +1107,6 @@
       <c r="L15">
         <v>3387</v>
       </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1251,12 +1157,6 @@
       <c r="L16">
         <v>2</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1307,12 +1207,6 @@
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1363,12 +1257,6 @@
       <c r="L18">
         <v>109</v>
       </c>
-      <c r="M18">
-        <v>8</v>
-      </c>
-      <c r="N18">
-        <v>29</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1419,12 +1307,6 @@
       <c r="L19">
         <v>869</v>
       </c>
-      <c r="M19">
-        <v>68</v>
-      </c>
-      <c r="N19">
-        <v>86</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1472,12 +1354,6 @@
       <c r="L20">
         <v>5</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1528,12 +1404,6 @@
       <c r="L21">
         <v>65</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1584,12 +1454,6 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1640,12 +1504,6 @@
       <c r="L23">
         <v>2</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1696,12 +1554,6 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1752,12 +1604,6 @@
       <c r="L25">
         <v>100</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1808,12 +1654,6 @@
       <c r="L26">
         <v>3098</v>
       </c>
-      <c r="M26">
-        <v>64</v>
-      </c>
-      <c r="N26">
-        <v>56</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1864,12 +1704,6 @@
       <c r="L27">
         <v>3</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1920,12 +1754,6 @@
       <c r="L28">
         <v>17</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1976,12 +1804,6 @@
       <c r="L29">
         <v>2</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2032,12 +1854,6 @@
       <c r="L30">
         <v>28</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2088,12 +1904,6 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2144,12 +1954,6 @@
       <c r="L32">
         <v>89</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>5</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2200,12 +2004,6 @@
       <c r="L33">
         <v>14</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2256,12 +2054,6 @@
       <c r="L34">
         <v>12</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2312,12 +2104,6 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2368,12 +2154,6 @@
       <c r="L36">
         <v>563</v>
       </c>
-      <c r="M36">
-        <v>4</v>
-      </c>
-      <c r="N36">
-        <v>5</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2424,12 +2204,6 @@
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2480,12 +2254,6 @@
       <c r="L38">
         <v>637</v>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2536,12 +2304,6 @@
       <c r="L39">
         <v>339</v>
       </c>
-      <c r="M39">
-        <v>8</v>
-      </c>
-      <c r="N39">
-        <v>11</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2592,12 +2354,6 @@
       <c r="L40">
         <v>106</v>
       </c>
-      <c r="M40">
-        <v>7</v>
-      </c>
-      <c r="N40">
-        <v>35</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2647,12 +2403,6 @@
       </c>
       <c r="L41">
         <v>246</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
